--- a/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST_since_2022/ifo_qoq_matched_errors_latest_since_2022.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST_since_2022/ifo_qoq_matched_errors_latest_since_2022.xlsx
@@ -687,7 +687,10 @@
         <v>0.02551376466621769</v>
       </c>
       <c r="I8">
-        <v>0.535526637811788</v>
+        <v>0.468739117536998</v>
+      </c>
+      <c r="J8">
+        <v>0.2150495036779461</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -713,7 +716,10 @@
         <v>0.09329708057898056</v>
       </c>
       <c r="H9">
-        <v>0.5766911554241068</v>
+        <v>0.5099036351493167</v>
+      </c>
+      <c r="I9">
+        <v>0.24</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -736,7 +742,10 @@
         <v>0.1375541386104714</v>
       </c>
       <c r="G10">
-        <v>0.6272238950261231</v>
+        <v>0.5604363747513331</v>
+      </c>
+      <c r="H10">
+        <v>0.3087982760018804</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -756,7 +765,10 @@
         <v>0.1537505981433559</v>
       </c>
       <c r="F11">
-        <v>0.6666911554241067</v>
+        <v>0.5999036351493168</v>
+      </c>
+      <c r="G11">
+        <v>0.32</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -773,7 +785,10 @@
         <v>0.006750598143355879</v>
       </c>
       <c r="E12">
-        <v>0.6966911554241066</v>
+        <v>0.6299036351493167</v>
+      </c>
+      <c r="F12">
+        <v>0.4476495795507702</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -787,7 +802,10 @@
         <v>-0.1064852930713557</v>
       </c>
       <c r="D13">
-        <v>0.4271648845785767</v>
+        <v>0.3603773643037867</v>
+      </c>
+      <c r="E13">
+        <v>0.1088966743764388</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -798,7 +816,10 @@
         <v>-0.06681224444203063</v>
       </c>
       <c r="C14">
-        <v>0.4775315349050862</v>
+        <v>0.4107440146302961</v>
+      </c>
+      <c r="D14">
+        <v>0.1461563307127136</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -806,12 +827,18 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.32386998960715</v>
+        <v>0.25708246933236</v>
+      </c>
+      <c r="C15">
+        <v>0.09547648014918764</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.0959495356205764</v>
       </c>
     </row>
   </sheetData>
